--- a/6res_2.xlsx
+++ b/6res_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
   <si>
     <t>UID</t>
   </si>
@@ -59,6 +59,51 @@
   </si>
   <si>
     <t>Deionised water</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
   </si>
 </sst>
 </file>
@@ -390,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +496,396 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>2875</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>2875</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>2875</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6">
+        <v>2875</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>2875</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>2875</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <v>2875</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>2875</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>2875</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>2875</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>2875</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <v>2875</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <v>2875</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16">
+        <v>2875</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>2875</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6res_2.xlsx
+++ b/6res_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>UID</t>
   </si>
@@ -62,48 +62,6 @@
   </si>
   <si>
     <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A15</t>
-  </si>
-  <si>
-    <t>A16</t>
   </si>
 </sst>
 </file>
@@ -435,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,370 +480,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>2875</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>2875</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6">
-        <v>2875</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>2875</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8">
-        <v>2875</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9">
-        <v>2875</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10">
-        <v>2875</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11">
-        <v>2875</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12">
-        <v>2875</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13">
-        <v>2875</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14">
-        <v>2875</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15">
-        <v>2875</v>
-      </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16">
-        <v>2875</v>
-      </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17">
-        <v>2875</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6res_2.xlsx
+++ b/6res_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>UID</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Deionised water</t>
-  </si>
-  <si>
-    <t>A2</t>
   </si>
 </sst>
 </file>
@@ -393,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -454,32 +451,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>2875</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6res_2.xlsx
+++ b/6res_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>UID</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Deionised water</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
 </sst>
 </file>
@@ -390,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +457,58 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>2875</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>2875</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6res_2.xlsx
+++ b/6res_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>UID</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>Deionised water</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
   </si>
 </sst>
 </file>
@@ -396,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,58 +451,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>2875</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>2875</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6res_2.xlsx
+++ b/6res_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>UID</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Deionised water</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +454,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>2875</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
